--- a/Documentation/Pokémon_stat_rebalance.xlsx
+++ b/Documentation/Pokémon_stat_rebalance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D664C07-F82A-4C84-B7BC-365B9B5FDAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AC685-90D1-4FA8-A78E-62D0DD582638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="367">
   <si>
     <t>ID</t>
   </si>
@@ -116,18 +116,12 @@
     <t>Effect Spore -&gt; Insomnia</t>
   </si>
   <si>
-    <t>60 -&gt; 30</t>
-  </si>
-  <si>
     <t>Paras</t>
   </si>
   <si>
     <t>55 -&gt; 65</t>
   </si>
   <si>
-    <t>45 -&gt; 70</t>
-  </si>
-  <si>
     <t>25 -&gt; 60</t>
   </si>
   <si>
@@ -287,9 +281,6 @@
     <t>Scyther</t>
   </si>
   <si>
-    <t xml:space="preserve">105 -&gt; 115 </t>
-  </si>
-  <si>
     <t>Electabuzz</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>Jigglypuff</t>
   </si>
   <si>
-    <t>20 -&gt; 45</t>
-  </si>
-  <si>
     <t>Bulbasaur</t>
   </si>
   <si>
@@ -710,9 +698,6 @@
     <t>Rhyhorn</t>
   </si>
   <si>
-    <t>25 -&gt; 65</t>
-  </si>
-  <si>
     <t>Chansey</t>
   </si>
   <si>
@@ -797,9 +782,6 @@
     <t>75 -&gt; 95</t>
   </si>
   <si>
-    <t>Normal -&gt; Steel</t>
-  </si>
-  <si>
     <t>Omanyte</t>
   </si>
   <si>
@@ -905,12 +887,6 @@
     <t>70 -&gt; 84</t>
   </si>
   <si>
-    <t>25 -&gt; 50</t>
-  </si>
-  <si>
-    <t>55 -&gt; 70</t>
-  </si>
-  <si>
     <t>63 -&gt; 78</t>
   </si>
   <si>
@@ -956,12 +932,6 @@
     <t>45 -&gt; 85</t>
   </si>
   <si>
-    <t>50 -&gt; 100</t>
-  </si>
-  <si>
-    <t>45 -&gt; 95</t>
-  </si>
-  <si>
     <t>55 -&gt; 30</t>
   </si>
   <si>
@@ -1016,9 +986,6 @@
     <t>100 -&gt; 80</t>
   </si>
   <si>
-    <t>105 -&gt; 125</t>
-  </si>
-  <si>
     <t>Water -&gt; Water/Ground</t>
   </si>
   <si>
@@ -1031,9 +998,6 @@
     <t>40 -&gt; 100</t>
   </si>
   <si>
-    <t>Chlorophyll -&gt; Shield Dust</t>
-  </si>
-  <si>
     <t>Lightning Rod/Rock Head -&gt; Sturdy</t>
   </si>
   <si>
@@ -1046,30 +1010,12 @@
     <t>120 -&gt; 135</t>
   </si>
   <si>
-    <t>53 -&gt; 64</t>
-  </si>
-  <si>
     <t>87 -&gt; 107</t>
   </si>
   <si>
-    <t>110 -&gt; 64</t>
-  </si>
-  <si>
     <t>79 -&gt; 77</t>
   </si>
   <si>
-    <t>79 -&gt; 84</t>
-  </si>
-  <si>
-    <t>110 -&gt; 84</t>
-  </si>
-  <si>
-    <t>85 -&gt; 55</t>
-  </si>
-  <si>
-    <t>65 -&gt; 80</t>
-  </si>
-  <si>
     <t>Bug -&gt; Bug/Fighting</t>
   </si>
   <si>
@@ -1088,9 +1034,6 @@
     <t>Inner Focus -&gt; Marvel Scale</t>
   </si>
   <si>
-    <t>80 -&gt; 95</t>
-  </si>
-  <si>
     <t>65 -&gt; 73</t>
   </si>
   <si>
@@ -1100,21 +1043,6 @@
     <t>57 -&gt; 74</t>
   </si>
   <si>
-    <t>95 -&gt; 101</t>
-  </si>
-  <si>
-    <t>85 -&gt; 47</t>
-  </si>
-  <si>
-    <t>105 -&gt; 116</t>
-  </si>
-  <si>
-    <t>50 -&gt; 116</t>
-  </si>
-  <si>
-    <t>35 -&gt; 47</t>
-  </si>
-  <si>
     <t>95 -&gt; 74</t>
   </si>
   <si>
@@ -1124,16 +1052,91 @@
     <t>57 -&gt; 89</t>
   </si>
   <si>
-    <t>100 -&gt; 116</t>
-  </si>
-  <si>
-    <t>115 -&gt; 101</t>
-  </si>
-  <si>
-    <t>93 -&gt; 47</t>
-  </si>
-  <si>
-    <t>85 -&gt; 101</t>
+    <t>20 -&gt; 30</t>
+  </si>
+  <si>
+    <t>25 -&gt; 20</t>
+  </si>
+  <si>
+    <t>50 -&gt; 85</t>
+  </si>
+  <si>
+    <t>55 -&gt; 75</t>
+  </si>
+  <si>
+    <t>30 -&gt; 25</t>
+  </si>
+  <si>
+    <t>80 -&gt; 90</t>
+  </si>
+  <si>
+    <t>45 -&gt; 80</t>
+  </si>
+  <si>
+    <t>45 -&gt; 60</t>
+  </si>
+  <si>
+    <t>90 -&gt; 95</t>
+  </si>
+  <si>
+    <t>90 -&gt; 80</t>
+  </si>
+  <si>
+    <t>55 -&gt; 40</t>
+  </si>
+  <si>
+    <t>105 -&gt; 120</t>
+  </si>
+  <si>
+    <t>25 -&gt; 45</t>
+  </si>
+  <si>
+    <t>35 -&gt; 67</t>
+  </si>
+  <si>
+    <t>85 -&gt; 67</t>
+  </si>
+  <si>
+    <t>93 -&gt; 67</t>
+  </si>
+  <si>
+    <t>115 -&gt; 91</t>
+  </si>
+  <si>
+    <t>50 -&gt; 106</t>
+  </si>
+  <si>
+    <t>85 -&gt; 91</t>
+  </si>
+  <si>
+    <t>100 -&gt; 106</t>
+  </si>
+  <si>
+    <t>105 -&gt; 106</t>
+  </si>
+  <si>
+    <t>95 -&gt; 91</t>
+  </si>
+  <si>
+    <t>79 -&gt; 74</t>
+  </si>
+  <si>
+    <t>110 -&gt; 94</t>
+  </si>
+  <si>
+    <t>53 -&gt; 54</t>
+  </si>
+  <si>
+    <t>110 -&gt; 74</t>
+  </si>
+  <si>
+    <t>100 -&gt; 90</t>
+  </si>
+  <si>
+    <t>49 -&gt; 59</t>
+  </si>
+  <si>
+    <t>Chlorophyll -&gt; Shield Dust/Sticky Hold</t>
   </si>
 </sst>
 </file>
@@ -1453,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1467,7 +1470,7 @@
     <col min="6" max="6" width="15.81640625" customWidth="1"/>
     <col min="7" max="7" width="17.90625" customWidth="1"/>
     <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="49.6328125" customWidth="1"/>
+    <col min="9" max="9" width="46.1796875" customWidth="1"/>
     <col min="10" max="10" width="27.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1508,19 +1511,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -1532,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -1540,19 +1543,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1564,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -1572,19 +1575,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>364</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1596,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -1604,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1636,7 +1639,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -1668,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1692,7 +1695,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1700,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -1732,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1764,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -1831,22 +1834,22 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="G12" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1872,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1927,19 +1930,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>339</v>
       </c>
       <c r="G15" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="H15" t="s">
         <v>10</v>
@@ -1962,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1977,7 +1980,7 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J16" t="s">
         <v>10</v>
@@ -1988,13 +1991,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
@@ -2020,22 +2023,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>283</v>
+      </c>
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
-        <v>291</v>
-      </c>
-      <c r="D18" t="s">
-        <v>294</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>48</v>
-      </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
         <v>10</v>
@@ -2052,22 +2055,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -2084,13 +2087,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
@@ -2105,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J20" t="s">
         <v>10</v>
@@ -2116,28 +2119,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>288</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
         <v>54</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
       </c>
       <c r="J21" t="s">
         <v>10</v>
@@ -2148,22 +2151,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
         <v>37</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E22" t="s">
         <v>38</v>
       </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>41</v>
       </c>
       <c r="H22" t="s">
         <v>10</v>
@@ -2180,25 +2183,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
         <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" t="s">
-        <v>36</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -2212,13 +2215,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
         <v>10</v>
@@ -2227,7 +2230,7 @@
         <v>10</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
         <v>10</v>
@@ -2244,13 +2247,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E25" t="s">
         <v>10</v>
@@ -2259,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" t="s">
         <v>10</v>
@@ -2276,7 +2279,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -2297,7 +2300,7 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J26" t="s">
         <v>10</v>
@@ -2308,7 +2311,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -2329,7 +2332,7 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J27" t="s">
         <v>10</v>
@@ -2340,7 +2343,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2361,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J28" t="s">
         <v>10</v>
@@ -2372,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C29" t="s">
         <v>10</v>
@@ -2393,7 +2396,7 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="J29" t="s">
         <v>10</v>
@@ -2404,7 +2407,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
         <v>10</v>
@@ -2425,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J30" t="s">
         <v>10</v>
@@ -2436,7 +2439,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2457,7 +2460,7 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
         <v>10</v>
@@ -2468,7 +2471,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
         <v>10</v>
@@ -2477,19 +2480,19 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F32" t="s">
         <v>10</v>
       </c>
       <c r="G32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
         <v>10</v>
@@ -2500,7 +2503,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -2521,7 +2524,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
         <v>10</v>
@@ -2532,7 +2535,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -2553,7 +2556,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
         <v>10</v>
@@ -2564,19 +2567,19 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -2585,7 +2588,7 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
         <v>10</v>
@@ -2596,7 +2599,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
         <v>10</v>
@@ -2605,19 +2608,19 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H36" t="s">
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J36" t="s">
         <v>10</v>
@@ -2628,7 +2631,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -2637,19 +2640,19 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37" t="s">
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J37" t="s">
         <v>10</v>
@@ -2660,19 +2663,19 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -2692,19 +2695,19 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" t="s">
-        <v>70</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>71</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -2724,28 +2727,28 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J40" t="s">
         <v>10</v>
@@ -2756,28 +2759,28 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C41" t="s">
         <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J41" t="s">
         <v>10</v>
@@ -2788,22 +2791,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -2820,22 +2823,22 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D43" t="s">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H43" t="s">
         <v>10</v>
@@ -2852,7 +2855,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
         <v>10</v>
@@ -2864,7 +2867,7 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -2873,10 +2876,10 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J44" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
@@ -2884,7 +2887,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -2896,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -2905,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J45" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2916,7 +2919,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C46" t="s">
         <v>10</v>
@@ -2928,7 +2931,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -2937,10 +2940,10 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="J46" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
@@ -2948,28 +2951,28 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
         <v>27</v>
       </c>
-      <c r="C47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
+        <v>345</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
         <v>28</v>
       </c>
-      <c r="F47" t="s">
+      <c r="I47" t="s">
         <v>29</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" t="s">
-        <v>31</v>
       </c>
       <c r="J47" t="s">
         <v>10</v>
@@ -2992,7 +2995,7 @@
         <v>24</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G48" t="s">
         <v>24</v>
@@ -3012,19 +3015,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -3044,28 +3047,28 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" t="s">
         <v>162</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>163</v>
       </c>
-      <c r="D50" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>165</v>
-      </c>
-      <c r="F50" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" t="s">
-        <v>167</v>
-      </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I50" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J50" t="s">
         <v>10</v>
@@ -3076,7 +3079,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -3094,7 +3097,7 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J51" t="s">
         <v>10</v>
@@ -3105,7 +3108,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -3117,7 +3120,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s">
         <v>10</v>
@@ -3126,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="J52" t="s">
         <v>10</v>
@@ -3137,16 +3140,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -3158,7 +3161,7 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J53" t="s">
         <v>10</v>
@@ -3169,16 +3172,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
@@ -3201,13 +3204,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C55" t="s">
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
@@ -3233,13 +3236,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>10</v>
@@ -3265,13 +3268,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
         <v>10</v>
@@ -3283,7 +3286,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I57" t="s">
         <v>10</v>
@@ -3297,25 +3300,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
       </c>
       <c r="G58" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I58" t="s">
         <v>10</v>
@@ -3329,7 +3332,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -3353,7 +3356,7 @@
         <v>10</v>
       </c>
       <c r="J59" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
@@ -3361,7 +3364,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
@@ -3385,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="J60" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
@@ -3393,10 +3396,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>10</v>
@@ -3405,16 +3408,16 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="I61" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J61" t="s">
         <v>10</v>
@@ -3425,10 +3428,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
@@ -3437,16 +3440,16 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G62" t="s">
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="I62" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J62" t="s">
         <v>10</v>
@@ -3457,28 +3460,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>346</v>
       </c>
       <c r="D63" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E63" t="s">
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
+        <v>347</v>
       </c>
       <c r="H63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I63" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J63" t="s">
         <v>10</v>
@@ -3489,7 +3492,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -3521,7 +3524,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -3553,7 +3556,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -3585,7 +3588,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -3617,7 +3620,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -3649,7 +3652,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -3681,7 +3684,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -3713,7 +3716,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -3745,7 +3748,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -3777,7 +3780,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -3789,13 +3792,13 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I73" t="s">
         <v>10</v>
@@ -3809,7 +3812,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -3827,7 +3830,7 @@
         <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="I74" t="s">
         <v>10</v>
@@ -3841,7 +3844,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -3856,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="G75" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H75" t="s">
         <v>10</v>
@@ -3873,7 +3876,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -3885,10 +3888,10 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
         <v>10</v>
@@ -3905,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" t="s">
         <v>10</v>
@@ -3917,10 +3920,10 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>348</v>
       </c>
       <c r="G77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H77" t="s">
         <v>10</v>
@@ -3937,7 +3940,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3955,10 +3958,10 @@
         <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J78" t="s">
         <v>10</v>
@@ -3969,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -3987,10 +3990,10 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J79" t="s">
         <v>10</v>
@@ -4001,7 +4004,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C80" t="s">
         <v>10</v>
@@ -4033,7 +4036,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -4065,7 +4068,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -4080,13 +4083,13 @@
         <v>10</v>
       </c>
       <c r="G82" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H82" t="s">
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J82" t="s">
         <v>10</v>
@@ -4097,7 +4100,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -4112,13 +4115,13 @@
         <v>10</v>
       </c>
       <c r="G83" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="H83" t="s">
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J83" t="s">
         <v>10</v>
@@ -4129,25 +4132,25 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>50</v>
+      </c>
+      <c r="G84" t="s">
+        <v>169</v>
+      </c>
+      <c r="H84" t="s">
         <v>51</v>
-      </c>
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" t="s">
-        <v>52</v>
-      </c>
-      <c r="G84" t="s">
-        <v>173</v>
-      </c>
-      <c r="H84" t="s">
-        <v>53</v>
       </c>
       <c r="I84" t="s">
         <v>10</v>
@@ -4161,7 +4164,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -4179,10 +4182,10 @@
         <v>10</v>
       </c>
       <c r="H85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J85" t="s">
         <v>10</v>
@@ -4193,28 +4196,28 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" t="s">
+        <v>111</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" t="s">
         <v>113</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" t="s">
-        <v>114</v>
-      </c>
-      <c r="F86" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" t="s">
-        <v>10</v>
-      </c>
-      <c r="H86" t="s">
-        <v>115</v>
-      </c>
-      <c r="I86" t="s">
-        <v>116</v>
       </c>
       <c r="J86" t="s">
         <v>10</v>
@@ -4225,19 +4228,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G87" t="s">
         <v>10</v>
@@ -4249,7 +4252,7 @@
         <v>10</v>
       </c>
       <c r="J87" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4257,19 +4260,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C88" t="s">
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E88" t="s">
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
         <v>10</v>
@@ -4289,7 +4292,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -4298,22 +4301,22 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F89" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H89" t="s">
         <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J89" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
@@ -4321,7 +4324,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -4330,10 +4333,10 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G90" t="s">
         <v>10</v>
@@ -4342,10 +4345,10 @@
         <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J90" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4353,10 +4356,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
@@ -4365,10 +4368,10 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
@@ -4377,7 +4380,7 @@
         <v>10</v>
       </c>
       <c r="J91" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
@@ -4385,7 +4388,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C92" t="s">
         <v>10</v>
@@ -4417,7 +4420,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C93" t="s">
         <v>10</v>
@@ -4449,7 +4452,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -4481,7 +4484,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C95" t="s">
         <v>10</v>
@@ -4502,10 +4505,10 @@
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="J95" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
@@ -4516,10 +4519,10 @@
         <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
@@ -4545,19 +4548,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -4577,19 +4580,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G98" t="s">
         <v>10</v>
@@ -4609,10 +4612,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
         <v>10</v>
@@ -4621,19 +4624,19 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G99" t="s">
         <v>10</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I99" t="s">
         <v>10</v>
       </c>
       <c r="J99" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
@@ -4641,11 +4644,11 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>95</v>
+      </c>
+      <c r="C100" t="s">
         <v>98</v>
       </c>
-      <c r="C100" t="s">
-        <v>101</v>
-      </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
@@ -4653,19 +4656,19 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" t="s">
+        <v>97</v>
+      </c>
+      <c r="H100" t="s">
         <v>99</v>
       </c>
-      <c r="G100" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" t="s">
-        <v>102</v>
-      </c>
       <c r="I100" t="s">
         <v>10</v>
       </c>
       <c r="J100" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
@@ -4673,19 +4676,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G101" t="s">
         <v>10</v>
@@ -4694,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J101" t="s">
         <v>10</v>
@@ -4705,19 +4708,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E102" t="s">
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G102" t="s">
         <v>10</v>
@@ -4726,7 +4729,7 @@
         <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J102" t="s">
         <v>10</v>
@@ -4737,7 +4740,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
         <v>10</v>
@@ -4769,7 +4772,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
         <v>10</v>
@@ -4801,10 +4804,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -4813,19 +4816,19 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G105" t="s">
         <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="J105" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -4833,31 +4836,31 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>73</v>
+      </c>
+      <c r="C106" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
         <v>75</v>
       </c>
-      <c r="C106" t="s">
+      <c r="I106" t="s">
+        <v>317</v>
+      </c>
+      <c r="J106" t="s">
         <v>76</v>
-      </c>
-      <c r="D106" t="s">
-        <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>55</v>
-      </c>
-      <c r="G106" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" t="s">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s">
-        <v>328</v>
-      </c>
-      <c r="J106" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
@@ -4865,25 +4868,25 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C107" t="s">
         <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="E107" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
       <c r="G107" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="H107" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="I107" t="s">
         <v>10</v>
@@ -4897,25 +4900,25 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F108" t="s">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="H108" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="I108" t="s">
         <v>10</v>
@@ -4929,25 +4932,25 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C109" t="s">
         <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E109" t="s">
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G109" t="s">
         <v>10</v>
       </c>
       <c r="H109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I109" t="s">
         <v>10</v>
@@ -4961,7 +4964,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
         <v>10</v>
@@ -4973,7 +4976,7 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -4993,7 +4996,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C111" t="s">
         <v>10</v>
@@ -5005,7 +5008,7 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s">
         <v>10</v>
@@ -5025,7 +5028,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
         <v>10</v>
@@ -5043,10 +5046,10 @@
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
       <c r="I112" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J112" t="s">
         <v>10</v>
@@ -5057,7 +5060,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C113" t="s">
         <v>10</v>
@@ -5075,10 +5078,10 @@
         <v>10</v>
       </c>
       <c r="H113" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="I113" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J113" t="s">
         <v>10</v>
@@ -5089,7 +5092,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
         <v>10</v>
@@ -5121,10 +5124,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
@@ -5133,19 +5136,19 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G115" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H115" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I115" t="s">
-        <v>10</v>
+        <v>366</v>
       </c>
       <c r="J115" t="s">
-        <v>331</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
@@ -5153,7 +5156,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -5185,28 +5188,28 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D117" t="s">
         <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G117" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H117" t="s">
         <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J117" t="s">
         <v>10</v>
@@ -5217,28 +5220,28 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H118" t="s">
         <v>10</v>
       </c>
       <c r="I118" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J118" t="s">
         <v>10</v>
@@ -5249,13 +5252,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
         <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E119" t="s">
         <v>10</v>
@@ -5281,13 +5284,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
         <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E120" t="s">
         <v>10</v>
@@ -5313,7 +5316,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C121" t="s">
         <v>10</v>
@@ -5334,10 +5337,10 @@
         <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J121" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
@@ -5345,7 +5348,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C122" t="s">
         <v>10</v>
@@ -5366,7 +5369,7 @@
         <v>10</v>
       </c>
       <c r="I122" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="J122" t="s">
         <v>10</v>
@@ -5377,10 +5380,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C123" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
@@ -5409,7 +5412,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C124" t="s">
         <v>10</v>
@@ -5427,7 +5430,7 @@
         <v>10</v>
       </c>
       <c r="H124" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="I124" t="s">
         <v>10</v>
@@ -5441,31 +5444,31 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C125" t="s">
+        <v>332</v>
+      </c>
+      <c r="D125" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" t="s">
         <v>351</v>
       </c>
-      <c r="D125" t="s">
-        <v>357</v>
-      </c>
-      <c r="E125" t="s">
-        <v>358</v>
-      </c>
       <c r="F125" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G125" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="H125" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="I125" t="s">
         <v>10</v>
       </c>
       <c r="J125" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
@@ -5473,31 +5476,31 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C126" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D126" t="s">
+        <v>333</v>
+      </c>
+      <c r="E126" t="s">
+        <v>334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>359</v>
+      </c>
+      <c r="G126" t="s">
         <v>352</v>
       </c>
-      <c r="E126" t="s">
-        <v>353</v>
-      </c>
-      <c r="F126" t="s">
-        <v>354</v>
-      </c>
-      <c r="G126" t="s">
-        <v>355</v>
-      </c>
       <c r="H126" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="I126" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J126" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
@@ -5505,31 +5508,31 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="D127" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="E127" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="F127" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="H127" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="I127" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J127" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -5537,10 +5540,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>343</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
         <v>10</v>
@@ -5552,16 +5555,16 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
-        <v>342</v>
+        <v>10</v>
       </c>
       <c r="I128" t="s">
         <v>10</v>
       </c>
       <c r="J128" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -5569,7 +5572,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C129" t="s">
         <v>10</v>
@@ -5601,7 +5604,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s">
         <v>10</v>
@@ -5633,7 +5636,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -5657,7 +5660,7 @@
         <v>10</v>
       </c>
       <c r="J131" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
@@ -5665,7 +5668,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C132" t="s">
         <v>10</v>
@@ -5697,22 +5700,22 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C133" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D133" t="s">
         <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
         <v>10</v>
       </c>
       <c r="G133" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H133" t="s">
         <v>10</v>
@@ -5729,7 +5732,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -5750,7 +5753,7 @@
         <v>10</v>
       </c>
       <c r="I134" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J134" t="s">
         <v>10</v>
@@ -5761,7 +5764,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C135" t="s">
         <v>10</v>
@@ -5793,7 +5796,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C136" t="s">
         <v>10</v>
@@ -5825,7 +5828,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C137" t="s">
         <v>10</v>
@@ -5857,31 +5860,31 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C138" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D138" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E138" t="s">
         <v>21</v>
       </c>
       <c r="F138" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G138" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H138" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="I138" t="s">
         <v>10</v>
       </c>
       <c r="J138" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
@@ -5889,7 +5892,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C139" t="s">
         <v>10</v>
@@ -5910,7 +5913,7 @@
         <v>10</v>
       </c>
       <c r="I139" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J139" t="s">
         <v>10</v>
@@ -5921,7 +5924,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C140" t="s">
         <v>10</v>
@@ -5942,7 +5945,7 @@
         <v>10</v>
       </c>
       <c r="I140" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J140" t="s">
         <v>10</v>
@@ -5953,7 +5956,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C141" t="s">
         <v>10</v>
@@ -5974,10 +5977,10 @@
         <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J141" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
@@ -5985,7 +5988,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -6006,10 +6009,10 @@
         <v>10</v>
       </c>
       <c r="I142" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="J142" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
@@ -6017,31 +6020,31 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C143" t="s">
-        <v>350</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
         <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>294</v>
+        <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H143" t="s">
         <v>10</v>
       </c>
       <c r="I143" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J143" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
@@ -6049,28 +6052,28 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C144" t="s">
         <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F144" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G144" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H144" t="s">
         <v>10</v>
       </c>
       <c r="I144" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J144" t="s">
         <v>10</v>
@@ -6081,7 +6084,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C145" t="s">
         <v>10</v>
@@ -6113,7 +6116,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C146" t="s">
         <v>10</v>
@@ -6145,7 +6148,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C147" t="s">
         <v>10</v>
@@ -6177,19 +6180,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C148" t="s">
         <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G148" t="s">
         <v>10</v>
@@ -6209,19 +6212,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C149" t="s">
         <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G149" t="s">
         <v>10</v>
@@ -6241,19 +6244,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E150" t="s">
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G150" t="s">
         <v>10</v>
@@ -6262,7 +6265,7 @@
         <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="J150" t="s">
         <v>10</v>
@@ -6273,7 +6276,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -6305,7 +6308,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C152" t="s">
         <v>10</v>

--- a/Documentation/Pokémon_stat_rebalance.xlsx
+++ b/Documentation/Pokémon_stat_rebalance.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1AC685-90D1-4FA8-A78E-62D0DD582638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578E21DE-DA62-4466-B3EC-C60EAA31E07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="368">
   <si>
     <t>ID</t>
   </si>
@@ -1001,9 +990,6 @@
     <t>Lightning Rod/Rock Head -&gt; Sturdy</t>
   </si>
   <si>
-    <t>Levitate -&gt; Pressure</t>
-  </si>
-  <si>
     <t>Fire -&gt; Fire/Poison</t>
   </si>
   <si>
@@ -1137,6 +1123,12 @@
   </si>
   <si>
     <t>Chlorophyll -&gt; Shield Dust/Sticky Hold</t>
+  </si>
+  <si>
+    <t>Levitate -&gt; Immunity</t>
+  </si>
+  <si>
+    <t>Ground</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" topLeftCell="C91" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1517,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1587,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1834,22 +1826,22 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" t="s">
         <v>340</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>338</v>
-      </c>
-      <c r="E12" t="s">
-        <v>341</v>
-      </c>
-      <c r="F12" t="s">
-        <v>339</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1875,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1930,7 +1922,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -1939,7 +1931,7 @@
         <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G15" t="s">
         <v>28</v>
@@ -1965,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -2963,7 +2955,7 @@
         <v>27</v>
       </c>
       <c r="F47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G47" t="s">
         <v>27</v>
@@ -3463,7 +3455,7 @@
         <v>182</v>
       </c>
       <c r="C63" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
         <v>85</v>
@@ -3475,7 +3467,7 @@
         <v>159</v>
       </c>
       <c r="G63" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H63" t="s">
         <v>42</v>
@@ -3920,7 +3912,7 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G77" t="s">
         <v>58</v>
@@ -3990,7 +3982,7 @@
         <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I79" t="s">
         <v>197</v>
@@ -4505,7 +4497,7 @@
         <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>321</v>
+        <v>366</v>
       </c>
       <c r="J95" t="s">
         <v>278</v>
@@ -4828,7 +4820,7 @@
         <v>317</v>
       </c>
       <c r="J105" t="s">
-        <v>76</v>
+        <v>367</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
@@ -4874,19 +4866,19 @@
         <v>10</v>
       </c>
       <c r="D107" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" t="s">
+        <v>361</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" t="s">
         <v>323</v>
-      </c>
-      <c r="E107" t="s">
-        <v>362</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" t="s">
-        <v>363</v>
-      </c>
-      <c r="H107" t="s">
-        <v>324</v>
       </c>
       <c r="I107" t="s">
         <v>10</v>
@@ -4909,16 +4901,16 @@
         <v>10</v>
       </c>
       <c r="E108" t="s">
+        <v>359</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
         <v>360</v>
       </c>
-      <c r="F108" t="s">
-        <v>10</v>
-      </c>
-      <c r="G108" t="s">
-        <v>361</v>
-      </c>
       <c r="H108" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I108" t="s">
         <v>10</v>
@@ -5046,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I112" t="s">
         <v>320</v>
@@ -5145,7 +5137,7 @@
         <v>245</v>
       </c>
       <c r="I115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J115" t="s">
         <v>10</v>
@@ -5447,22 +5439,22 @@
         <v>232</v>
       </c>
       <c r="C125" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F125" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G125" t="s">
+        <v>334</v>
+      </c>
+      <c r="H125" t="s">
         <v>335</v>
-      </c>
-      <c r="H125" t="s">
-        <v>336</v>
       </c>
       <c r="I125" t="s">
         <v>10</v>
@@ -5479,22 +5471,22 @@
         <v>81</v>
       </c>
       <c r="C126" t="s">
+        <v>331</v>
+      </c>
+      <c r="D126" t="s">
         <v>332</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
         <v>333</v>
       </c>
-      <c r="E126" t="s">
-        <v>334</v>
-      </c>
       <c r="F126" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G126" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H126" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I126" t="s">
         <v>83</v>
@@ -5511,28 +5503,28 @@
         <v>84</v>
       </c>
       <c r="C127" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D127" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E127" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F127" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G127" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H127" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I127" t="s">
         <v>86</v>
       </c>
       <c r="J127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
@@ -5564,7 +5556,7 @@
         <v>10</v>
       </c>
       <c r="J128" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
@@ -6186,7 +6178,7 @@
         <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E148" t="s">
         <v>10</v>
@@ -6218,7 +6210,7 @@
         <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E149" t="s">
         <v>10</v>
@@ -6250,14 +6242,14 @@
         <v>10</v>
       </c>
       <c r="D150" t="s">
+        <v>326</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
         <v>327</v>
       </c>
-      <c r="E150" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" t="s">
-        <v>328</v>
-      </c>
       <c r="G150" t="s">
         <v>10</v>
       </c>
@@ -6265,7 +6257,7 @@
         <v>10</v>
       </c>
       <c r="I150" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J150" t="s">
         <v>10</v>
